--- a/漢字（かんじ）/y.xlsx
+++ b/漢字（かんじ）/y.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18D4298-B29D-45E8-820F-46FA0BC78276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD77EB9-9001-479D-B592-6774B4B9EB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="11652" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="や" sheetId="1" r:id="rId1"/>
@@ -97,11 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>野生｜やせい
-野菜｜やさい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>横山｜よこやま</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,6 +502,12 @@
 優柔｜ゆうじゅう
 優柔不断｜ゆうじゅうふだん
 優勝｜ゆうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野生｜やせい
+野菜｜やさい
+分野｜ぶんや</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -872,13 +873,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -889,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -897,10 +898,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -911,7 +912,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -922,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -930,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -944,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -952,10 +953,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -963,10 +964,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -974,10 +975,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -988,18 +989,18 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E5ED1C-3B3F-4E60-A20A-2350CD3FCE37}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1024,82 +1025,82 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1107,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1118,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1151,10 +1152,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1162,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1173,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1184,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1195,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1206,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1217,10 +1218,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1253,82 +1254,82 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1336,13 +1337,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -1353,19 +1354,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1384,10 +1385,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1395,10 +1396,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -1409,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1417,10 +1418,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1428,21 +1429,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1450,10 +1451,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/y.xlsx
+++ b/漢字（かんじ）/y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD77EB9-9001-479D-B592-6774B4B9EB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E3A30-9E5A-4F45-AA03-041CE7A02C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="や" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>予約｜よやく
+予定｜よてい
+予報｜よほう
+予期｜よき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別様｜べつよう
+模様｜もよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻訳｜ほんやく
+翻訳者｜ほんやくしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活躍｜かつやく
+大活躍｜だいかつやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部屋｜へや
+本屋｜ほんや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽光｜ようこう
+太陽光｜たいようこう
+太陽系｜たいようけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有名｜ゆうめい
+有効｜ゆうこう
+有利｜ゆうり
+有効期限｜ゆうこうきげん
+保有｜ほゆう
+具有｜ぐゆう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供養｜くよう
+栄養｜えいよう
+保養｜ほよう
+養生｜ようせい
+養成｜ようせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求｜ようきゅう
+要請｜ようせい
+必要｜ひつよう
+要旨｜ようし
+要領｜ようりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優秀｜ゆうしゅう
+優待｜ゆうたい
+優柔｜ゆうじゅう
+優柔不断｜ゆうじゅうふだん
+優勝｜ゆうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>使用｜しよう
+応用｜おうよう
 飲用｜いんよう
 引用｜いんよう
 活用｜かつよう
@@ -431,82 +506,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>予約｜よやく
-予定｜よてい
-予報｜よほう
-予期｜よき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>別様｜べつよう
-模様｜もよう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻訳｜ほんやく
-翻訳者｜ほんやくしゃ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活躍｜かつやく
-大活躍｜だいかつやく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部屋｜へや
-本屋｜ほんや</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陽光｜ようこう
-太陽光｜たいようこう
-太陽系｜たいようけい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有名｜ゆうめい
-有効｜ゆうこう
-有利｜ゆうり
-有効期限｜ゆうこうきげん
-保有｜ほゆう
-具有｜ぐゆう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供養｜くよう
-栄養｜えいよう
-保養｜ほよう
-養生｜ようせい
-養成｜ようせい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求｜ようきゅう
-要請｜ようせい
-必要｜ひつよう
-要旨｜ようし
-要領｜ようりょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>優秀｜ゆうしゅう
-優待｜ゆうたい
-優柔｜ゆうじゅう
-優柔不断｜ゆうじゅうふだん
-優勝｜ゆうしょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>野生｜やせい
 野菜｜やさい
+視野｜しや
 分野｜ぶんや</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -915,7 +917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -967,7 +969,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -975,10 +977,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1155,7 +1157,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1188,7 +1190,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1240,7 +1242,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1280,7 +1282,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1340,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>58</v>
@@ -1357,7 +1359,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>87</v>
@@ -1399,10 +1401,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="180" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="198" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1410,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1451,10 +1453,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/y.xlsx
+++ b/漢字（かんじ）/y.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E3A30-9E5A-4F45-AA03-041CE7A02C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0736999A-465B-4BA8-9AB8-CFE5717E8B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="や" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>遊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>融合｜ゆうごう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仮名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,12 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>役所｜やくしょ
-役立つ｜やくだつ
-役割｜やくわり</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夜食｜やしょく
 徹夜｜てつや</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,11 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夕涼｜ゆうすず
-夕方｜ゆうがた</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>妖精｜ようせい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,13 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>予約｜よやく
-予定｜よてい
-予報｜よほう
-予期｜よき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>別様｜べつよう
 模様｜もよう</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,23 +434,6 @@
     <t>陽光｜ようこう
 太陽光｜たいようこう
 太陽系｜たいようけい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有名｜ゆうめい
-有効｜ゆうこう
-有利｜ゆうり
-有効期限｜ゆうこうきげん
-保有｜ほゆう
-具有｜ぐゆう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供養｜くよう
-栄養｜えいよう
-保養｜ほよう
-養生｜ようせい
-養成｜ようせい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,6 +471,68 @@
 野菜｜やさい
 視野｜しや
 分野｜ぶんや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役所｜やくしょ
+役立つ｜やくだつ
+役割｜やくわり
+役目｜やくめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利｜ゆうり
+有名｜ゆうめい
+有効｜ゆうこう
+有効期限｜ゆうこうきげん
+保有｜ほゆう
+具有｜ぐゆう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合｜ゆうごう
+融解｜ゆうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘拐｜ゆうかい
+誘拐犯｜ゆうかいはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕涼｜ゆうすずみ
+夕方｜ゆうがた
+夕立｜ゆうだち
+夕食｜ゆうしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供養｜くよう
+栄養｜えいよう
+保養｜ほよう
+養生｜ようじょう
+養成｜ようせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼児｜ようじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予約｜よやく
+予定｜よてい
+予報｜よほう
+予期｜よき
+予備｜よび
+予備校｜よびこう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -875,13 +898,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -892,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -900,10 +923,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -914,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -925,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -947,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,7 +981,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -966,10 +989,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -977,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -996,13 +1019,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1015,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E5ED1C-3B3F-4E60-A20A-2350CD3FCE37}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1027,22 +1050,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.8" x14ac:dyDescent="0.45">
@@ -1053,7 +1076,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>38</v>
@@ -1062,7 +1085,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1070,19 +1093,19 @@
         <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.4" x14ac:dyDescent="0.45">
@@ -1090,19 +1113,19 @@
         <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1110,10 +1133,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1121,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1157,10 +1180,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1190,7 +1213,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1215,21 +1238,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1239,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F985D-F07D-4538-99A0-E0CEDB35CE8A}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1256,25 +1285,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1311,7 +1340,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1322,16 +1351,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1342,44 +1371,44 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1387,32 +1416,32 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="198" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1420,10 +1449,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1431,32 +1460,43 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>99</v>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/y.xlsx
+++ b/漢字（かんじ）/y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0736999A-465B-4BA8-9AB8-CFE5717E8B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDE981B-D623-4F06-8D4C-5B0FD525B1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="や" sheetId="1" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E5ED1C-3B3F-4E60-A20A-2350CD3FCE37}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F985D-F07D-4538-99A0-E0CEDB35CE8A}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/漢字（かんじ）/y.xlsx
+++ b/漢字（かんじ）/y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDE981B-D623-4F06-8D4C-5B0FD525B1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A86F0-CA70-4B7E-B998-5E0A80CC88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="や" sheetId="1" r:id="rId1"/>
@@ -371,12 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>余裕｜よゆう
-余剰｜よじょう
-余分｜よぶん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>読</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,6 +527,13 @@
 予期｜よき
 予備｜よび
 予備校｜よびこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余裕｜よゆう
+余剰｜よじょう
+余分｜よぶん
+余白｜よはく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -948,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -981,7 +982,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -992,7 +993,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1000,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1038,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E5ED1C-3B3F-4E60-A20A-2350CD3FCE37}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1181,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1191,7 +1192,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1213,7 +1214,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1246,7 +1247,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1254,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1270,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F985D-F07D-4538-99A0-E0CEDB35CE8A}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1311,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1340,10 +1341,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1351,16 +1352,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1371,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>57</v>
@@ -1385,19 +1386,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1408,7 +1409,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1441,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1452,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1493,10 +1494,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/y.xlsx
+++ b/漢字（かんじ）/y.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A86F0-CA70-4B7E-B998-5E0A80CC88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B11DFE-29BF-4231-AAE1-5E6680A42D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
